--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3716.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3716.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.351530769770539</v>
+        <v>1.676342725753784</v>
       </c>
       <c r="B1">
-        <v>2.840196560933923</v>
+        <v>4.045720100402832</v>
       </c>
       <c r="C1">
-        <v>6.567475736855503</v>
+        <v>3.305055856704712</v>
       </c>
       <c r="D1">
-        <v>1.984598991147601</v>
+        <v>1.604742527008057</v>
       </c>
       <c r="E1">
-        <v>1.032310409107469</v>
+        <v>0.7457998394966125</v>
       </c>
     </row>
   </sheetData>
